--- a/data/2016 Temporary Detentions.xlsx
+++ b/data/2016 Temporary Detentions.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Equity Center/Github/cvilleequity_stopandfrisk/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D8399A-8690-D449-B0DE-A7F9F3DC0E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="13395" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stop WITH Search_Frisk" sheetId="1" r:id="rId1"/>
     <sheet name="Stop WITHOUT Search_Frisk" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="77">
-  <si>
-    <t>REPORT DATE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="76">
   <si>
     <t>INCIDENT #</t>
   </si>
@@ -252,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,6 +378,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -423,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,9 +461,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,6 +513,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -666,61 +705,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="34" style="11" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="11"/>
+    <col min="3" max="3" width="33.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="11" customWidth="1"/>
+    <col min="12" max="12" width="31.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>42380</v>
       </c>
@@ -728,28 +767,28 @@
         <v>201600161</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>42383</v>
       </c>
@@ -757,28 +796,28 @@
         <v>201600229</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>42383</v>
       </c>
@@ -786,28 +825,28 @@
         <v>201600227</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>42386</v>
       </c>
@@ -815,28 +854,28 @@
         <v>201600266</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>42386</v>
       </c>
@@ -844,28 +883,28 @@
         <v>201600266</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>42386</v>
       </c>
@@ -873,28 +912,28 @@
         <v>201600266</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>42386</v>
       </c>
@@ -902,28 +941,28 @@
         <v>201600266</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>42387</v>
       </c>
@@ -931,28 +970,28 @@
         <v>201600285</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>42390</v>
       </c>
@@ -960,28 +999,28 @@
         <v>201600347</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>42395</v>
       </c>
@@ -989,28 +1028,28 @@
         <v>201600438</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>42396</v>
       </c>
@@ -1018,28 +1057,28 @@
         <v>201600459</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>42399</v>
       </c>
@@ -1047,28 +1086,28 @@
         <v>201600539</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>42420</v>
       </c>
@@ -1076,28 +1115,28 @@
         <v>201600879</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>42420</v>
       </c>
@@ -1105,28 +1144,28 @@
         <v>201600877</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>42420</v>
       </c>
@@ -1134,28 +1173,28 @@
         <v>201600879</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>42420</v>
       </c>
@@ -1163,28 +1202,28 @@
         <v>201600879</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>42420</v>
       </c>
@@ -1192,28 +1231,28 @@
         <v>201600877</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>42420</v>
       </c>
@@ -1221,28 +1260,28 @@
         <v>201600877</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>42422</v>
       </c>
@@ -1250,28 +1289,28 @@
         <v>201600902</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>42438</v>
       </c>
@@ -1279,28 +1318,28 @@
         <v>201601224</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>42440</v>
       </c>
@@ -1308,28 +1347,28 @@
         <v>201601248</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>42440</v>
       </c>
@@ -1337,28 +1376,28 @@
         <v>201601248</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>42440</v>
       </c>
@@ -1366,28 +1405,28 @@
         <v>201601248</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>42440</v>
       </c>
@@ -1395,28 +1434,28 @@
         <v>201601248</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>42440</v>
       </c>
@@ -1424,28 +1463,28 @@
         <v>201601248</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>42446</v>
       </c>
@@ -1453,28 +1492,28 @@
         <v>201601352</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>42447</v>
       </c>
@@ -1482,28 +1521,28 @@
         <v>201601393</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>42448</v>
       </c>
@@ -1511,28 +1550,28 @@
         <v>201601394</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>42448</v>
       </c>
@@ -1540,28 +1579,28 @@
         <v>201601394</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>42448</v>
       </c>
@@ -1569,28 +1608,28 @@
         <v>201601394</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>42454</v>
       </c>
@@ -1598,28 +1637,28 @@
         <v>201601542</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>42455</v>
       </c>
@@ -1627,28 +1666,28 @@
         <v>201601549</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>42468</v>
       </c>
@@ -1656,28 +1695,28 @@
         <v>201601794</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>42469</v>
       </c>
@@ -1685,28 +1724,28 @@
         <v>201601825</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>42491</v>
       </c>
@@ -1714,28 +1753,28 @@
         <v>201602299</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>42497</v>
       </c>
@@ -1743,28 +1782,28 @@
         <v>201602425</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>42508</v>
       </c>
@@ -1772,28 +1811,28 @@
         <v>201602661</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>42508</v>
       </c>
@@ -1801,28 +1840,28 @@
         <v>201602661</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>42512</v>
       </c>
@@ -1830,28 +1869,28 @@
         <v>201602738</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>42512</v>
       </c>
@@ -1859,28 +1898,28 @@
         <v>201602738</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>42516</v>
       </c>
@@ -1888,28 +1927,28 @@
         <v>201602855</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42522</v>
       </c>
@@ -1917,28 +1956,28 @@
         <v>201602985</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>42530</v>
       </c>
@@ -1946,28 +1985,28 @@
         <v>201603130</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>42530</v>
       </c>
@@ -1975,28 +2014,28 @@
         <v>201603150</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>42532</v>
       </c>
@@ -2004,28 +2043,28 @@
         <v>201603200</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>42538</v>
       </c>
@@ -2033,28 +2072,28 @@
         <v>201603306</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>42538</v>
       </c>
@@ -2062,28 +2101,28 @@
         <v>201603306</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>42539</v>
       </c>
@@ -2091,28 +2130,28 @@
         <v>201603337</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>42547</v>
       </c>
@@ -2120,28 +2159,28 @@
         <v>201630653</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>42563</v>
       </c>
@@ -2149,28 +2188,28 @@
         <v>201632830</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>42570</v>
       </c>
@@ -2178,28 +2217,28 @@
         <v>201633606</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>42570</v>
       </c>
@@ -2207,28 +2246,28 @@
         <v>201633606</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>42571</v>
       </c>
@@ -2236,28 +2275,28 @@
         <v>201633751</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>42571</v>
       </c>
@@ -2265,28 +2304,28 @@
         <v>201633743</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>42571</v>
       </c>
@@ -2294,28 +2333,28 @@
         <v>201633743</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>42577</v>
       </c>
@@ -2323,28 +2362,28 @@
         <v>201634486</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>42593</v>
       </c>
@@ -2352,28 +2391,28 @@
         <v>201636318</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>42615</v>
       </c>
@@ -2381,28 +2420,28 @@
         <v>201639080</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>42615</v>
       </c>
@@ -2410,28 +2449,28 @@
         <v>201639080</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>42615</v>
       </c>
@@ -2439,28 +2478,28 @@
         <v>201639080</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>42618</v>
       </c>
@@ -2468,28 +2507,28 @@
         <v>201639365</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>42618</v>
       </c>
@@ -2497,28 +2536,28 @@
         <v>201639365</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>42618</v>
       </c>
@@ -2526,28 +2565,28 @@
         <v>201639365</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>42624</v>
       </c>
@@ -2555,28 +2594,28 @@
         <v>201640147</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>42651</v>
       </c>
@@ -2584,28 +2623,28 @@
         <v>201643497</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>42651</v>
       </c>
@@ -2613,28 +2652,28 @@
         <v>201643497</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>42657</v>
       </c>
@@ -2642,28 +2681,28 @@
         <v>201644348</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="F68" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>42657</v>
       </c>
@@ -2671,28 +2710,28 @@
         <v>201644233</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>42658</v>
       </c>
@@ -2700,25 +2739,25 @@
         <v>201644498</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2728,53 +2767,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="12.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="14"/>
     <col min="4" max="4" width="33" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="14" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="14"/>
+    <col min="8" max="8" width="25.6640625" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>42384</v>
       </c>
@@ -2782,25 +2821,25 @@
         <v>201600231</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>42384</v>
       </c>
@@ -2808,25 +2847,25 @@
         <v>201600231</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>42384</v>
       </c>
@@ -2834,25 +2873,25 @@
         <v>201600231</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>42384</v>
       </c>
@@ -2860,25 +2899,25 @@
         <v>201600231</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>42384</v>
       </c>
@@ -2886,25 +2925,25 @@
         <v>201600231</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>42399</v>
       </c>
@@ -2912,25 +2951,25 @@
         <v>201600535</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>42449</v>
       </c>
@@ -2938,25 +2977,25 @@
         <v>201601432</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>42449</v>
       </c>
@@ -2964,25 +3003,25 @@
         <v>201601432</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>42449</v>
       </c>
@@ -2990,25 +3029,25 @@
         <v>201601433</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>42449</v>
       </c>
@@ -3016,25 +3055,25 @@
         <v>201601433</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>42464</v>
       </c>
@@ -3042,25 +3081,25 @@
         <v>201601720</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>42491</v>
       </c>
@@ -3068,25 +3107,25 @@
         <v>201602299</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>42512</v>
       </c>
@@ -3094,25 +3133,25 @@
         <v>201602753</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>42529</v>
       </c>
@@ -3120,25 +3159,25 @@
         <v>201603116</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>42538</v>
       </c>
@@ -3146,25 +3185,25 @@
         <v>201603324</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>42551</v>
       </c>
@@ -3172,25 +3211,25 @@
         <v>201631269</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>42551</v>
       </c>
@@ -3198,25 +3237,25 @@
         <v>201631269</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H18" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>42551</v>
       </c>
@@ -3224,25 +3263,25 @@
         <v>201631269</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>42551</v>
       </c>
@@ -3250,25 +3289,25 @@
         <v>201631269</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H20" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>42556</v>
       </c>
@@ -3276,25 +3315,25 @@
         <v>201631821</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>42558</v>
       </c>
@@ -3302,25 +3341,25 @@
         <v>201632120</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>42560</v>
       </c>
@@ -3328,25 +3367,25 @@
         <v>2016032404</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>42560</v>
       </c>
@@ -3354,25 +3393,25 @@
         <v>2016032404</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>42560</v>
       </c>
@@ -3380,25 +3419,25 @@
         <v>2016032404</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H25" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>42560</v>
       </c>
@@ -3406,25 +3445,25 @@
         <v>2016032404</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H26" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>42561</v>
       </c>
@@ -3432,25 +3471,25 @@
         <v>201632651</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>42602</v>
       </c>
@@ -3458,25 +3497,25 @@
         <v>201637345</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>42610</v>
       </c>
@@ -3484,37 +3523,25 @@
         <v>201638421</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>